--- a/log_align_ascend/memory_report.xlsx
+++ b/log_align_ascend/memory_report.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=64" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=96" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=128" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +473,5142 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="F6" t="n">
+        <v>57.34</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>76.34</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>84.31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>114.69</v>
+      </c>
+      <c r="G9" t="n">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>128.31</v>
+      </c>
+      <c r="F10" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="G10" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G12" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F13" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G13" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G14" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="G20" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="F21" t="n">
+        <v>57.34</v>
+      </c>
+      <c r="G21" t="n">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D22" t="n">
+        <v>128</v>
+      </c>
+      <c r="E22" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>76.34</v>
+      </c>
+      <c r="G22" t="n">
+        <v>36.16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="F23" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="G23" t="n">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D24" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" t="n">
+        <v>84.31</v>
+      </c>
+      <c r="F24" t="n">
+        <v>114.69</v>
+      </c>
+      <c r="G24" t="n">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D25" t="n">
+        <v>128</v>
+      </c>
+      <c r="E25" t="n">
+        <v>128.31</v>
+      </c>
+      <c r="F25" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="G25" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64</v>
+      </c>
+      <c r="E26" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D27" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F27" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G27" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>128</v>
+      </c>
+      <c r="E28" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F28" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64</v>
+      </c>
+      <c r="E29" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D30" t="n">
+        <v>96</v>
+      </c>
+      <c r="E30" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F30" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D31" t="n">
+        <v>128</v>
+      </c>
+      <c r="E31" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F31" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D32" t="n">
+        <v>64</v>
+      </c>
+      <c r="E32" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D33" t="n">
+        <v>96</v>
+      </c>
+      <c r="E33" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D34" t="n">
+        <v>128</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D35" t="n">
+        <v>64</v>
+      </c>
+      <c r="E35" t="n">
+        <v>773</v>
+      </c>
+      <c r="F35" t="n">
+        <v>519</v>
+      </c>
+      <c r="G35" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D36" t="n">
+        <v>96</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G36" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D37" t="n">
+        <v>128</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D38" t="n">
+        <v>64</v>
+      </c>
+      <c r="E38" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="F38" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D39" t="n">
+        <v>96</v>
+      </c>
+      <c r="E39" t="n">
+        <v>84.31</v>
+      </c>
+      <c r="F39" t="n">
+        <v>114.69</v>
+      </c>
+      <c r="G39" t="n">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D40" t="n">
+        <v>128</v>
+      </c>
+      <c r="E40" t="n">
+        <v>128.31</v>
+      </c>
+      <c r="F40" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="G40" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D41" t="n">
+        <v>64</v>
+      </c>
+      <c r="E41" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F41" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G41" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D42" t="n">
+        <v>96</v>
+      </c>
+      <c r="E42" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F42" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G42" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D43" t="n">
+        <v>128</v>
+      </c>
+      <c r="E43" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F43" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G43" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D44" t="n">
+        <v>64</v>
+      </c>
+      <c r="E44" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F44" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G44" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D45" t="n">
+        <v>96</v>
+      </c>
+      <c r="E45" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F45" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G45" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D46" t="n">
+        <v>128</v>
+      </c>
+      <c r="E46" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G46" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D47" t="n">
+        <v>64</v>
+      </c>
+      <c r="E47" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D48" t="n">
+        <v>96</v>
+      </c>
+      <c r="E48" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D49" t="n">
+        <v>128</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D50" t="n">
+        <v>64</v>
+      </c>
+      <c r="E50" t="n">
+        <v>773</v>
+      </c>
+      <c r="F50" t="n">
+        <v>519</v>
+      </c>
+      <c r="G50" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D51" t="n">
+        <v>96</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G51" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D52" t="n">
+        <v>128</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D53" t="n">
+        <v>64</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D54" t="n">
+        <v>96</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D55" t="n">
+        <v>128</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4106</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D56" t="n">
+        <v>64</v>
+      </c>
+      <c r="E56" t="n">
+        <v>72.47</v>
+      </c>
+      <c r="F56" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="G56" t="n">
+        <v>54.47</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D57" t="n">
+        <v>96</v>
+      </c>
+      <c r="E57" t="n">
+        <v>126.47</v>
+      </c>
+      <c r="F57" t="n">
+        <v>172.03</v>
+      </c>
+      <c r="G57" t="n">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D58" t="n">
+        <v>128</v>
+      </c>
+      <c r="E58" t="n">
+        <v>192.47</v>
+      </c>
+      <c r="F58" t="n">
+        <v>229.03</v>
+      </c>
+      <c r="G58" t="n">
+        <v>108.47</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>12</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D59" t="n">
+        <v>64</v>
+      </c>
+      <c r="E59" t="n">
+        <v>144.94</v>
+      </c>
+      <c r="F59" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="G59" t="n">
+        <v>108.94</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D60" t="n">
+        <v>96</v>
+      </c>
+      <c r="E60" t="n">
+        <v>252.94</v>
+      </c>
+      <c r="F60" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="G60" t="n">
+        <v>162.94</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D61" t="n">
+        <v>128</v>
+      </c>
+      <c r="E61" t="n">
+        <v>384.94</v>
+      </c>
+      <c r="F61" t="n">
+        <v>458.06</v>
+      </c>
+      <c r="G61" t="n">
+        <v>216.94</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D62" t="n">
+        <v>64</v>
+      </c>
+      <c r="E62" t="n">
+        <v>289.88</v>
+      </c>
+      <c r="F62" t="n">
+        <v>194.62</v>
+      </c>
+      <c r="G62" t="n">
+        <v>217.88</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12</v>
+      </c>
+      <c r="C63" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D63" t="n">
+        <v>96</v>
+      </c>
+      <c r="E63" t="n">
+        <v>505.88</v>
+      </c>
+      <c r="F63" t="n">
+        <v>688.12</v>
+      </c>
+      <c r="G63" t="n">
+        <v>325.88</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12</v>
+      </c>
+      <c r="C64" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D64" t="n">
+        <v>128</v>
+      </c>
+      <c r="E64" t="n">
+        <v>769.88</v>
+      </c>
+      <c r="F64" t="n">
+        <v>916.12</v>
+      </c>
+      <c r="G64" t="n">
+        <v>433.88</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+      <c r="C65" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="n">
+        <v>579.75</v>
+      </c>
+      <c r="F65" t="n">
+        <v>389.25</v>
+      </c>
+      <c r="G65" t="n">
+        <v>435.75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D66" t="n">
+        <v>96</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1011.75</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1376.25</v>
+      </c>
+      <c r="G66" t="n">
+        <v>651.75</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D67" t="n">
+        <v>128</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1539.75</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1832.25</v>
+      </c>
+      <c r="G67" t="n">
+        <v>867.75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12</v>
+      </c>
+      <c r="C68" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D68" t="n">
+        <v>64</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1159.5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="G68" t="n">
+        <v>871.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12</v>
+      </c>
+      <c r="C69" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D69" t="n">
+        <v>96</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2023.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2752.5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1303.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12</v>
+      </c>
+      <c r="C70" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D70" t="n">
+        <v>128</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3079.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3664.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1735.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12</v>
+      </c>
+      <c r="C71" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D71" t="n">
+        <v>64</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2319</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1557</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12</v>
+      </c>
+      <c r="C72" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D72" t="n">
+        <v>96</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4047</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5505</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12</v>
+      </c>
+      <c r="C73" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D73" t="n">
+        <v>128</v>
+      </c>
+      <c r="E73" t="n">
+        <v>6159</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7329</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="n">
+        <v>16</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D74" t="n">
+        <v>64</v>
+      </c>
+      <c r="E74" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F74" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G74" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>16</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D75" t="n">
+        <v>96</v>
+      </c>
+      <c r="E75" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F75" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G75" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D76" t="n">
+        <v>128</v>
+      </c>
+      <c r="E76" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F76" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G76" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="n">
+        <v>16</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D77" t="n">
+        <v>64</v>
+      </c>
+      <c r="E77" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F77" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G77" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D78" t="n">
+        <v>96</v>
+      </c>
+      <c r="E78" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F78" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G78" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="n">
+        <v>16</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D79" t="n">
+        <v>128</v>
+      </c>
+      <c r="E79" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F79" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G79" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>16</v>
+      </c>
+      <c r="C80" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D80" t="n">
+        <v>64</v>
+      </c>
+      <c r="E80" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G80" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="n">
+        <v>16</v>
+      </c>
+      <c r="C81" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D81" t="n">
+        <v>96</v>
+      </c>
+      <c r="E81" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>16</v>
+      </c>
+      <c r="C82" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D82" t="n">
+        <v>128</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="n">
+        <v>16</v>
+      </c>
+      <c r="C83" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D83" t="n">
+        <v>64</v>
+      </c>
+      <c r="E83" t="n">
+        <v>773</v>
+      </c>
+      <c r="F83" t="n">
+        <v>519</v>
+      </c>
+      <c r="G83" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="n">
+        <v>16</v>
+      </c>
+      <c r="C84" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D84" t="n">
+        <v>96</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G84" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>16</v>
+      </c>
+      <c r="C85" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D85" t="n">
+        <v>128</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="n">
+        <v>16</v>
+      </c>
+      <c r="C86" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D86" t="n">
+        <v>64</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
+        <v>16</v>
+      </c>
+      <c r="C87" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D87" t="n">
+        <v>96</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="n">
+        <v>16</v>
+      </c>
+      <c r="C88" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D88" t="n">
+        <v>128</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4106</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="n">
+        <v>16</v>
+      </c>
+      <c r="C89" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D89" t="n">
+        <v>64</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3092</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2076</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="n">
+        <v>16</v>
+      </c>
+      <c r="C90" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D90" t="n">
+        <v>96</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5396</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7340</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>16</v>
+      </c>
+      <c r="C91" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D91" t="n">
+        <v>128</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8212</v>
+      </c>
+      <c r="F91" t="n">
+        <v>9772</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>32</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D92" t="n">
+        <v>64</v>
+      </c>
+      <c r="E92" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F92" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G92" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>32</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D93" t="n">
+        <v>96</v>
+      </c>
+      <c r="E93" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F93" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G93" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="n">
+        <v>32</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D94" t="n">
+        <v>128</v>
+      </c>
+      <c r="E94" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F94" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G94" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="n">
+        <v>32</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D95" t="n">
+        <v>64</v>
+      </c>
+      <c r="E95" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>32</v>
+      </c>
+      <c r="C96" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D96" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="n">
+        <v>32</v>
+      </c>
+      <c r="C97" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D97" t="n">
+        <v>128</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="n">
+        <v>32</v>
+      </c>
+      <c r="C98" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D98" t="n">
+        <v>64</v>
+      </c>
+      <c r="E98" t="n">
+        <v>773</v>
+      </c>
+      <c r="F98" t="n">
+        <v>519</v>
+      </c>
+      <c r="G98" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" t="n">
+        <v>32</v>
+      </c>
+      <c r="C99" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D99" t="n">
+        <v>96</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G99" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>32</v>
+      </c>
+      <c r="C100" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D100" t="n">
+        <v>128</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>32</v>
+      </c>
+      <c r="C101" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D101" t="n">
+        <v>64</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>32</v>
+      </c>
+      <c r="C102" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D102" t="n">
+        <v>96</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>32</v>
+      </c>
+      <c r="C103" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D103" t="n">
+        <v>128</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4106</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>32</v>
+      </c>
+      <c r="C104" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D104" t="n">
+        <v>64</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3092</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2076</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>32</v>
+      </c>
+      <c r="C105" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D105" t="n">
+        <v>96</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5396</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7340</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>32</v>
+      </c>
+      <c r="C106" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D106" t="n">
+        <v>128</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8212</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9772</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" t="n">
+        <v>32</v>
+      </c>
+      <c r="C107" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D107" t="n">
+        <v>64</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6184</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4152</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>32</v>
+      </c>
+      <c r="C108" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D108" t="n">
+        <v>96</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10792</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14680</v>
+      </c>
+      <c r="G108" t="n">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>32</v>
+      </c>
+      <c r="C109" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D109" t="n">
+        <v>128</v>
+      </c>
+      <c r="E109" t="n">
+        <v>16424</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19544</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_mem_mb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64</v>
+      </c>
+      <c r="E4" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64</v>
+      </c>
+      <c r="E6" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D7" t="n">
+        <v>64</v>
+      </c>
+      <c r="E7" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>64</v>
+      </c>
+      <c r="E13" t="n">
+        <v>773</v>
+      </c>
+      <c r="F13" t="n">
+        <v>519</v>
+      </c>
+      <c r="G13" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="G14" t="n">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>64</v>
+      </c>
+      <c r="E15" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G15" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E16" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>773</v>
+      </c>
+      <c r="F18" t="n">
+        <v>519</v>
+      </c>
+      <c r="G18" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>64</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64</v>
+      </c>
+      <c r="E20" t="n">
+        <v>72.47</v>
+      </c>
+      <c r="F20" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="G20" t="n">
+        <v>54.47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>144.94</v>
+      </c>
+      <c r="F21" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="G21" t="n">
+        <v>108.94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>289.88</v>
+      </c>
+      <c r="F22" t="n">
+        <v>194.62</v>
+      </c>
+      <c r="G22" t="n">
+        <v>217.88</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" t="n">
+        <v>579.75</v>
+      </c>
+      <c r="F23" t="n">
+        <v>389.25</v>
+      </c>
+      <c r="G23" t="n">
+        <v>435.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1159.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>871.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>64</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2319</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1557</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64</v>
+      </c>
+      <c r="E26" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G26" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D27" t="n">
+        <v>64</v>
+      </c>
+      <c r="E27" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G27" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>64</v>
+      </c>
+      <c r="E28" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64</v>
+      </c>
+      <c r="E29" t="n">
+        <v>773</v>
+      </c>
+      <c r="F29" t="n">
+        <v>519</v>
+      </c>
+      <c r="G29" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D30" t="n">
+        <v>64</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D31" t="n">
+        <v>64</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3092</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2076</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D32" t="n">
+        <v>64</v>
+      </c>
+      <c r="E32" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G32" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D33" t="n">
+        <v>64</v>
+      </c>
+      <c r="E33" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D34" t="n">
+        <v>64</v>
+      </c>
+      <c r="E34" t="n">
+        <v>773</v>
+      </c>
+      <c r="F34" t="n">
+        <v>519</v>
+      </c>
+      <c r="G34" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D35" t="n">
+        <v>64</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D36" t="n">
+        <v>64</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3092</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2076</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D37" t="n">
+        <v>64</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6184</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4152</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_mem_mb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57.34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96</v>
+      </c>
+      <c r="E4" t="n">
+        <v>84.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>114.69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G5" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D7" t="n">
+        <v>96</v>
+      </c>
+      <c r="E7" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D8" t="n">
+        <v>96</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="F8" t="n">
+        <v>57.34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>84.31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>114.69</v>
+      </c>
+      <c r="G9" t="n">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G10" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>96</v>
+      </c>
+      <c r="E11" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G13" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D14" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" t="n">
+        <v>84.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>114.69</v>
+      </c>
+      <c r="G14" t="n">
+        <v>54.31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G15" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D16" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G18" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>96</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" t="n">
+        <v>126.47</v>
+      </c>
+      <c r="F20" t="n">
+        <v>172.03</v>
+      </c>
+      <c r="G20" t="n">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" t="n">
+        <v>252.94</v>
+      </c>
+      <c r="F21" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="G21" t="n">
+        <v>162.94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>96</v>
+      </c>
+      <c r="E22" t="n">
+        <v>505.88</v>
+      </c>
+      <c r="F22" t="n">
+        <v>688.12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>325.88</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>96</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1011.75</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1376.25</v>
+      </c>
+      <c r="G23" t="n">
+        <v>651.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D24" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2023.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2752.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1303.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4047</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5505</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D26" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G26" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D27" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G27" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>96</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G29" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D30" t="n">
+        <v>96</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D31" t="n">
+        <v>96</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5396</v>
+      </c>
+      <c r="F31" t="n">
+        <v>7340</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D32" t="n">
+        <v>96</v>
+      </c>
+      <c r="E32" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G32" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D33" t="n">
+        <v>96</v>
+      </c>
+      <c r="E33" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D34" t="n">
+        <v>96</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G34" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D35" t="n">
+        <v>96</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D36" t="n">
+        <v>96</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5396</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7340</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D37" t="n">
+        <v>96</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10792</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14680</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_mem_mb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128</v>
+      </c>
+      <c r="E3" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="F3" t="n">
+        <v>76.34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>128.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="G4" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>128</v>
+      </c>
+      <c r="E5" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G5" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128</v>
+      </c>
+      <c r="E6" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D8" t="n">
+        <v>128</v>
+      </c>
+      <c r="E8" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>76.34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>36.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D9" t="n">
+        <v>128</v>
+      </c>
+      <c r="E9" t="n">
+        <v>128.31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="G9" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G10" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>128</v>
+      </c>
+      <c r="E11" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>128</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D14" t="n">
+        <v>128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>128.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="G14" t="n">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>128</v>
+      </c>
+      <c r="E15" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G15" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D17" t="n">
+        <v>128</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>128</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4106</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>128</v>
+      </c>
+      <c r="E20" t="n">
+        <v>192.47</v>
+      </c>
+      <c r="F20" t="n">
+        <v>229.03</v>
+      </c>
+      <c r="G20" t="n">
+        <v>108.47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>128</v>
+      </c>
+      <c r="E21" t="n">
+        <v>384.94</v>
+      </c>
+      <c r="F21" t="n">
+        <v>458.06</v>
+      </c>
+      <c r="G21" t="n">
+        <v>216.94</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>128</v>
+      </c>
+      <c r="E22" t="n">
+        <v>769.88</v>
+      </c>
+      <c r="F22" t="n">
+        <v>916.12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>433.88</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>128</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1539.75</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1832.25</v>
+      </c>
+      <c r="G23" t="n">
+        <v>867.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D24" t="n">
+        <v>128</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3079.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3664.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1735.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>128</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6159</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7329</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D26" t="n">
+        <v>128</v>
+      </c>
+      <c r="E26" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G26" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D27" t="n">
+        <v>128</v>
+      </c>
+      <c r="E27" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F27" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G27" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>128</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>128</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D30" t="n">
+        <v>128</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4106</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D31" t="n">
+        <v>128</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8212</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9772</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D32" t="n">
+        <v>128</v>
+      </c>
+      <c r="E32" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F32" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G32" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D33" t="n">
+        <v>128</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D34" t="n">
+        <v>128</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D35" t="n">
+        <v>128</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4106</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D36" t="n">
+        <v>128</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8212</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9772</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D37" t="n">
+        <v>128</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16424</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19544</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/log_align_ascend/memory_report.xlsx
+++ b/log_align_ascend/memory_report.xlsx
@@ -8,9 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=64" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=96" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=128" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=8" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=16" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=32" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2968,7 +2971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3044,19 +3047,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>24.16</v>
+        <v>21.83</v>
       </c>
       <c r="F3" t="n">
-        <v>16.22</v>
+        <v>28.67</v>
       </c>
       <c r="G3" t="n">
-        <v>18.16</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="4">
@@ -3067,19 +3070,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>48.31</v>
+        <v>32.08</v>
       </c>
       <c r="F4" t="n">
-        <v>32.44</v>
+        <v>38.17</v>
       </c>
       <c r="G4" t="n">
-        <v>36.31</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="5">
@@ -3090,19 +3093,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="D5" t="n">
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>96.62</v>
+        <v>24.16</v>
       </c>
       <c r="F5" t="n">
-        <v>64.88</v>
+        <v>16.22</v>
       </c>
       <c r="G5" t="n">
-        <v>72.62</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="6">
@@ -3113,19 +3116,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>65536</v>
+        <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>193.25</v>
+        <v>42.66</v>
       </c>
       <c r="F6" t="n">
-        <v>129.75</v>
+        <v>57.34</v>
       </c>
       <c r="G6" t="n">
-        <v>145.25</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="7">
@@ -3136,19 +3139,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>131072</v>
+        <v>8192</v>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>386.5</v>
+        <v>64.16</v>
       </c>
       <c r="F7" t="n">
-        <v>259.5</v>
+        <v>76.34</v>
       </c>
       <c r="G7" t="n">
-        <v>290.5</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="8">
@@ -3156,22 +3159,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4096</v>
+        <v>16384</v>
       </c>
       <c r="D8" t="n">
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>24.16</v>
+        <v>48.31</v>
       </c>
       <c r="F8" t="n">
-        <v>16.22</v>
+        <v>32.44</v>
       </c>
       <c r="G8" t="n">
-        <v>18.16</v>
+        <v>36.31</v>
       </c>
     </row>
     <row r="9">
@@ -3179,22 +3182,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>48.31</v>
+        <v>84.31</v>
       </c>
       <c r="F9" t="n">
-        <v>32.44</v>
+        <v>114.69</v>
       </c>
       <c r="G9" t="n">
-        <v>36.31</v>
+        <v>54.31</v>
       </c>
     </row>
     <row r="10">
@@ -3202,22 +3205,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>16384</v>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>96.62</v>
+        <v>128.31</v>
       </c>
       <c r="F10" t="n">
-        <v>64.88</v>
+        <v>152.69</v>
       </c>
       <c r="G10" t="n">
-        <v>72.62</v>
+        <v>72.31</v>
       </c>
     </row>
     <row r="11">
@@ -3225,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>32768</v>
@@ -3234,13 +3237,13 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>193.25</v>
+        <v>96.62</v>
       </c>
       <c r="F11" t="n">
-        <v>129.75</v>
+        <v>64.88</v>
       </c>
       <c r="G11" t="n">
-        <v>145.25</v>
+        <v>72.62</v>
       </c>
     </row>
     <row r="12">
@@ -3248,22 +3251,22 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>386.5</v>
+        <v>168.62</v>
       </c>
       <c r="F12" t="n">
-        <v>259.5</v>
+        <v>229.38</v>
       </c>
       <c r="G12" t="n">
-        <v>290.5</v>
+        <v>108.62</v>
       </c>
     </row>
     <row r="13">
@@ -3271,22 +3274,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>773</v>
+        <v>256.62</v>
       </c>
       <c r="F13" t="n">
-        <v>519</v>
+        <v>305.38</v>
       </c>
       <c r="G13" t="n">
-        <v>581</v>
+        <v>144.62</v>
       </c>
     </row>
     <row r="14">
@@ -3294,22 +3297,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>4096</v>
+        <v>65536</v>
       </c>
       <c r="D14" t="n">
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>48.31</v>
+        <v>193.25</v>
       </c>
       <c r="F14" t="n">
-        <v>32.44</v>
+        <v>129.75</v>
       </c>
       <c r="G14" t="n">
-        <v>36.31</v>
+        <v>145.25</v>
       </c>
     </row>
     <row r="15">
@@ -3317,22 +3320,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>8192</v>
+        <v>65536</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>96.62</v>
+        <v>337.25</v>
       </c>
       <c r="F15" t="n">
-        <v>64.88</v>
+        <v>458.75</v>
       </c>
       <c r="G15" t="n">
-        <v>72.62</v>
+        <v>217.25</v>
       </c>
     </row>
     <row r="16">
@@ -3340,22 +3343,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>193.25</v>
+        <v>513.25</v>
       </c>
       <c r="F16" t="n">
-        <v>129.75</v>
+        <v>610.75</v>
       </c>
       <c r="G16" t="n">
-        <v>145.25</v>
+        <v>289.25</v>
       </c>
     </row>
     <row r="17">
@@ -3363,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="D17" t="n">
         <v>64</v>
@@ -3386,22 +3389,22 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>773</v>
+        <v>674.5</v>
       </c>
       <c r="F18" t="n">
-        <v>519</v>
+        <v>917.5</v>
       </c>
       <c r="G18" t="n">
-        <v>581</v>
+        <v>434.5</v>
       </c>
     </row>
     <row r="19">
@@ -3409,436 +3412,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>131072</v>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>1546</v>
+        <v>1026.5</v>
       </c>
       <c r="F19" t="n">
-        <v>1038</v>
+        <v>1221.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D20" t="n">
-        <v>64</v>
-      </c>
-      <c r="E20" t="n">
-        <v>72.47</v>
-      </c>
-      <c r="F20" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="G20" t="n">
-        <v>54.47</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D21" t="n">
-        <v>64</v>
-      </c>
-      <c r="E21" t="n">
-        <v>144.94</v>
-      </c>
-      <c r="F21" t="n">
-        <v>97.31</v>
-      </c>
-      <c r="G21" t="n">
-        <v>108.94</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D22" t="n">
-        <v>64</v>
-      </c>
-      <c r="E22" t="n">
-        <v>289.88</v>
-      </c>
-      <c r="F22" t="n">
-        <v>194.62</v>
-      </c>
-      <c r="G22" t="n">
-        <v>217.88</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12</v>
-      </c>
-      <c r="C23" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D23" t="n">
-        <v>64</v>
-      </c>
-      <c r="E23" t="n">
-        <v>579.75</v>
-      </c>
-      <c r="F23" t="n">
-        <v>389.25</v>
-      </c>
-      <c r="G23" t="n">
-        <v>435.75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C24" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D24" t="n">
-        <v>64</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1159.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>778.5</v>
-      </c>
-      <c r="G24" t="n">
-        <v>871.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D25" t="n">
-        <v>64</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2319</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1557</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D26" t="n">
-        <v>64</v>
-      </c>
-      <c r="E26" t="n">
-        <v>96.62</v>
-      </c>
-      <c r="F26" t="n">
-        <v>64.88</v>
-      </c>
-      <c r="G26" t="n">
-        <v>72.62</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D27" t="n">
-        <v>64</v>
-      </c>
-      <c r="E27" t="n">
-        <v>193.25</v>
-      </c>
-      <c r="F27" t="n">
-        <v>129.75</v>
-      </c>
-      <c r="G27" t="n">
-        <v>145.25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D28" t="n">
-        <v>64</v>
-      </c>
-      <c r="E28" t="n">
-        <v>386.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="G28" t="n">
-        <v>290.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="n">
-        <v>16</v>
-      </c>
-      <c r="C29" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D29" t="n">
-        <v>64</v>
-      </c>
-      <c r="E29" t="n">
-        <v>773</v>
-      </c>
-      <c r="F29" t="n">
-        <v>519</v>
-      </c>
-      <c r="G29" t="n">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="n">
-        <v>16</v>
-      </c>
-      <c r="C30" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D30" t="n">
-        <v>64</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1546</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1038</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="n">
-        <v>16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D31" t="n">
-        <v>64</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3092</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2076</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="n">
-        <v>32</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D32" t="n">
-        <v>64</v>
-      </c>
-      <c r="E32" t="n">
-        <v>193.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>129.75</v>
-      </c>
-      <c r="G32" t="n">
-        <v>145.25</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D33" t="n">
-        <v>64</v>
-      </c>
-      <c r="E33" t="n">
-        <v>386.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>290.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D34" t="n">
-        <v>64</v>
-      </c>
-      <c r="E34" t="n">
-        <v>773</v>
-      </c>
-      <c r="F34" t="n">
-        <v>519</v>
-      </c>
-      <c r="G34" t="n">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="n">
-        <v>32</v>
-      </c>
-      <c r="C35" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D35" t="n">
-        <v>64</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1546</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1038</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="n">
-        <v>32</v>
-      </c>
-      <c r="C36" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D36" t="n">
-        <v>64</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3092</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2076</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="n">
-        <v>32</v>
-      </c>
-      <c r="C37" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D37" t="n">
-        <v>64</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6184</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4152</v>
-      </c>
-      <c r="G37" t="n">
-        <v>4648</v>
+        <v>578.5</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3902,22 +3491,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>4096</v>
       </c>
       <c r="D2" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>21.83</v>
+        <v>24.16</v>
       </c>
       <c r="F2" t="n">
-        <v>28.67</v>
+        <v>16.22</v>
       </c>
       <c r="G2" t="n">
-        <v>13.58</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="3">
@@ -3925,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D3" t="n">
         <v>96</v>
@@ -3948,22 +3537,22 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>84.31</v>
+        <v>64.16</v>
       </c>
       <c r="F4" t="n">
-        <v>114.69</v>
+        <v>76.34</v>
       </c>
       <c r="G4" t="n">
-        <v>54.31</v>
+        <v>36.16</v>
       </c>
     </row>
     <row r="5">
@@ -3971,22 +3560,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>168.62</v>
+        <v>48.31</v>
       </c>
       <c r="F5" t="n">
-        <v>229.38</v>
+        <v>32.44</v>
       </c>
       <c r="G5" t="n">
-        <v>108.62</v>
+        <v>36.31</v>
       </c>
     </row>
     <row r="6">
@@ -3994,22 +3583,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>65536</v>
+        <v>8192</v>
       </c>
       <c r="D6" t="n">
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>337.25</v>
+        <v>84.31</v>
       </c>
       <c r="F6" t="n">
-        <v>458.75</v>
+        <v>114.69</v>
       </c>
       <c r="G6" t="n">
-        <v>217.25</v>
+        <v>54.31</v>
       </c>
     </row>
     <row r="7">
@@ -4017,22 +3606,22 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>131072</v>
+        <v>8192</v>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>674.5</v>
+        <v>128.31</v>
       </c>
       <c r="F7" t="n">
-        <v>917.5</v>
+        <v>152.69</v>
       </c>
       <c r="G7" t="n">
-        <v>434.5</v>
+        <v>72.31</v>
       </c>
     </row>
     <row r="8">
@@ -4043,19 +3632,19 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4096</v>
+        <v>16384</v>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>42.66</v>
+        <v>96.62</v>
       </c>
       <c r="F8" t="n">
-        <v>57.34</v>
+        <v>64.88</v>
       </c>
       <c r="G8" t="n">
-        <v>27.16</v>
+        <v>72.62</v>
       </c>
     </row>
     <row r="9">
@@ -4066,19 +3655,19 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D9" t="n">
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>84.31</v>
+        <v>168.62</v>
       </c>
       <c r="F9" t="n">
-        <v>114.69</v>
+        <v>229.38</v>
       </c>
       <c r="G9" t="n">
-        <v>54.31</v>
+        <v>108.62</v>
       </c>
     </row>
     <row r="10">
@@ -4092,16 +3681,16 @@
         <v>16384</v>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>168.62</v>
+        <v>256.62</v>
       </c>
       <c r="F10" t="n">
-        <v>229.38</v>
+        <v>305.38</v>
       </c>
       <c r="G10" t="n">
-        <v>108.62</v>
+        <v>144.62</v>
       </c>
     </row>
     <row r="11">
@@ -4115,16 +3704,16 @@
         <v>32768</v>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>337.25</v>
+        <v>193.25</v>
       </c>
       <c r="F11" t="n">
-        <v>458.75</v>
+        <v>129.75</v>
       </c>
       <c r="G11" t="n">
-        <v>217.25</v>
+        <v>145.25</v>
       </c>
     </row>
     <row r="12">
@@ -4135,19 +3724,19 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="D12" t="n">
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>674.5</v>
+        <v>337.25</v>
       </c>
       <c r="F12" t="n">
-        <v>917.5</v>
+        <v>458.75</v>
       </c>
       <c r="G12" t="n">
-        <v>434.5</v>
+        <v>217.25</v>
       </c>
     </row>
     <row r="13">
@@ -4158,19 +3747,19 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>1349</v>
+        <v>513.25</v>
       </c>
       <c r="F13" t="n">
-        <v>1835</v>
+        <v>610.75</v>
       </c>
       <c r="G13" t="n">
-        <v>869</v>
+        <v>289.25</v>
       </c>
     </row>
     <row r="14">
@@ -4178,22 +3767,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>4096</v>
+        <v>65536</v>
       </c>
       <c r="D14" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>84.31</v>
+        <v>386.5</v>
       </c>
       <c r="F14" t="n">
-        <v>114.69</v>
+        <v>259.5</v>
       </c>
       <c r="G14" t="n">
-        <v>54.31</v>
+        <v>290.5</v>
       </c>
     </row>
     <row r="15">
@@ -4201,22 +3790,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>8192</v>
+        <v>65536</v>
       </c>
       <c r="D15" t="n">
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>168.62</v>
+        <v>674.5</v>
       </c>
       <c r="F15" t="n">
-        <v>229.38</v>
+        <v>917.5</v>
       </c>
       <c r="G15" t="n">
-        <v>108.62</v>
+        <v>434.5</v>
       </c>
     </row>
     <row r="16">
@@ -4224,22 +3813,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>337.25</v>
+        <v>1026.5</v>
       </c>
       <c r="F16" t="n">
-        <v>458.75</v>
+        <v>1221.5</v>
       </c>
       <c r="G16" t="n">
-        <v>217.25</v>
+        <v>578.5</v>
       </c>
     </row>
     <row r="17">
@@ -4247,22 +3836,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="D17" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>674.5</v>
+        <v>773</v>
       </c>
       <c r="F17" t="n">
-        <v>917.5</v>
+        <v>519</v>
       </c>
       <c r="G17" t="n">
-        <v>434.5</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18">
@@ -4270,10 +3859,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D18" t="n">
         <v>96</v>
@@ -4293,436 +3882,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>131072</v>
       </c>
       <c r="D19" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>2698</v>
+        <v>2053</v>
       </c>
       <c r="F19" t="n">
-        <v>3670</v>
+        <v>2443</v>
       </c>
       <c r="G19" t="n">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D20" t="n">
-        <v>96</v>
-      </c>
-      <c r="E20" t="n">
-        <v>126.47</v>
-      </c>
-      <c r="F20" t="n">
-        <v>172.03</v>
-      </c>
-      <c r="G20" t="n">
-        <v>81.47</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D21" t="n">
-        <v>96</v>
-      </c>
-      <c r="E21" t="n">
-        <v>252.94</v>
-      </c>
-      <c r="F21" t="n">
-        <v>344.06</v>
-      </c>
-      <c r="G21" t="n">
-        <v>162.94</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D22" t="n">
-        <v>96</v>
-      </c>
-      <c r="E22" t="n">
-        <v>505.88</v>
-      </c>
-      <c r="F22" t="n">
-        <v>688.12</v>
-      </c>
-      <c r="G22" t="n">
-        <v>325.88</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12</v>
-      </c>
-      <c r="C23" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D23" t="n">
-        <v>96</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1011.75</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1376.25</v>
-      </c>
-      <c r="G23" t="n">
-        <v>651.75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C24" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D24" t="n">
-        <v>96</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2023.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2752.5</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1303.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D25" t="n">
-        <v>96</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4047</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5505</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D26" t="n">
-        <v>96</v>
-      </c>
-      <c r="E26" t="n">
-        <v>168.62</v>
-      </c>
-      <c r="F26" t="n">
-        <v>229.38</v>
-      </c>
-      <c r="G26" t="n">
-        <v>108.62</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D27" t="n">
-        <v>96</v>
-      </c>
-      <c r="E27" t="n">
-        <v>337.25</v>
-      </c>
-      <c r="F27" t="n">
-        <v>458.75</v>
-      </c>
-      <c r="G27" t="n">
-        <v>217.25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D28" t="n">
-        <v>96</v>
-      </c>
-      <c r="E28" t="n">
-        <v>674.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>917.5</v>
-      </c>
-      <c r="G28" t="n">
-        <v>434.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="n">
-        <v>16</v>
-      </c>
-      <c r="C29" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D29" t="n">
-        <v>96</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1349</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1835</v>
-      </c>
-      <c r="G29" t="n">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="n">
-        <v>16</v>
-      </c>
-      <c r="C30" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D30" t="n">
-        <v>96</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2698</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3670</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="n">
-        <v>16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D31" t="n">
-        <v>96</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5396</v>
-      </c>
-      <c r="F31" t="n">
-        <v>7340</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="n">
-        <v>32</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D32" t="n">
-        <v>96</v>
-      </c>
-      <c r="E32" t="n">
-        <v>337.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>458.75</v>
-      </c>
-      <c r="G32" t="n">
-        <v>217.25</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D33" t="n">
-        <v>96</v>
-      </c>
-      <c r="E33" t="n">
-        <v>674.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>917.5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>434.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D34" t="n">
-        <v>96</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1349</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1835</v>
-      </c>
-      <c r="G34" t="n">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="n">
-        <v>32</v>
-      </c>
-      <c r="C35" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D35" t="n">
-        <v>96</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2698</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3670</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="n">
-        <v>32</v>
-      </c>
-      <c r="C36" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D36" t="n">
-        <v>96</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5396</v>
-      </c>
-      <c r="F36" t="n">
-        <v>7340</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="n">
-        <v>32</v>
-      </c>
-      <c r="C37" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D37" t="n">
-        <v>96</v>
-      </c>
-      <c r="E37" t="n">
-        <v>10792</v>
-      </c>
-      <c r="F37" t="n">
-        <v>14680</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6952</v>
+        <v>1157</v>
       </c>
     </row>
   </sheetData>
@@ -4736,7 +3911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4786,22 +3961,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>4096</v>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>32.08</v>
+        <v>48.31</v>
       </c>
       <c r="F2" t="n">
-        <v>38.17</v>
+        <v>32.44</v>
       </c>
       <c r="G2" t="n">
-        <v>18.08</v>
+        <v>36.31</v>
       </c>
     </row>
     <row r="3">
@@ -4809,22 +3984,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D3" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>64.16</v>
+        <v>84.31</v>
       </c>
       <c r="F3" t="n">
-        <v>76.34</v>
+        <v>114.69</v>
       </c>
       <c r="G3" t="n">
-        <v>36.16</v>
+        <v>54.31</v>
       </c>
     </row>
     <row r="4">
@@ -4832,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="D4" t="n">
         <v>128</v>
@@ -4855,22 +4030,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>256.62</v>
+        <v>96.62</v>
       </c>
       <c r="F5" t="n">
-        <v>305.38</v>
+        <v>64.88</v>
       </c>
       <c r="G5" t="n">
-        <v>144.62</v>
+        <v>72.62</v>
       </c>
     </row>
     <row r="6">
@@ -4878,22 +4053,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>65536</v>
+        <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>513.25</v>
+        <v>168.62</v>
       </c>
       <c r="F6" t="n">
-        <v>610.75</v>
+        <v>229.38</v>
       </c>
       <c r="G6" t="n">
-        <v>289.25</v>
+        <v>108.62</v>
       </c>
     </row>
     <row r="7">
@@ -4901,10 +4076,1420 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F7" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G7" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>773</v>
+      </c>
+      <c r="F14" t="n">
+        <v>519</v>
+      </c>
+      <c r="G14" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G15" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
         <v>131072</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4106</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_mem_mb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>72.47</v>
+      </c>
+      <c r="F2" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>54.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>126.47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>172.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>192.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>229.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>108.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>144.94</v>
+      </c>
+      <c r="F5" t="n">
+        <v>97.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>108.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>252.94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>162.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>384.94</v>
+      </c>
+      <c r="F7" t="n">
+        <v>458.06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>216.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>289.88</v>
+      </c>
+      <c r="F8" t="n">
+        <v>194.62</v>
+      </c>
+      <c r="G8" t="n">
+        <v>217.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>505.88</v>
+      </c>
+      <c r="F9" t="n">
+        <v>688.12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>325.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>769.88</v>
+      </c>
+      <c r="F10" t="n">
+        <v>916.12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>433.88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>579.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>389.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>435.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1011.75</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1376.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>651.75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1539.75</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1832.25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>867.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1159.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>871.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2023.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2752.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1303.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3079.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3664.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1735.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2319</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1557</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4047</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5505</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6159</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7329</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_mem_mb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>168.62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>229.38</v>
+      </c>
+      <c r="G3" t="n">
+        <v>108.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>256.62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>305.38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>144.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1026.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1221.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>773</v>
+      </c>
+      <c r="F11" t="n">
+        <v>519</v>
+      </c>
+      <c r="G11" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1835</v>
+      </c>
+      <c r="G12" t="n">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2053</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2443</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1546</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4106</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4886</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3092</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2076</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5396</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7340</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8212</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9772</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_mem_mb</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_mem_mb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>193.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="G2" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>217.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>610.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>289.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>290.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8192</v>
       </c>
       <c r="D7" t="n">
         <v>128</v>
@@ -4924,22 +5509,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>4096</v>
+        <v>16384</v>
       </c>
       <c r="D8" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>64.16</v>
+        <v>773</v>
       </c>
       <c r="F8" t="n">
-        <v>76.34</v>
+        <v>519</v>
       </c>
       <c r="G8" t="n">
-        <v>36.16</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9">
@@ -4947,22 +5532,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D9" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>128.31</v>
+        <v>1349</v>
       </c>
       <c r="F9" t="n">
-        <v>152.69</v>
+        <v>1835</v>
       </c>
       <c r="G9" t="n">
-        <v>72.31</v>
+        <v>869</v>
       </c>
     </row>
     <row r="10">
@@ -4970,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
         <v>16384</v>
@@ -4979,13 +5564,13 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>256.62</v>
+        <v>2053</v>
       </c>
       <c r="F10" t="n">
-        <v>305.38</v>
+        <v>2443</v>
       </c>
       <c r="G10" t="n">
-        <v>144.62</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="11">
@@ -4993,22 +5578,22 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>32768</v>
       </c>
       <c r="D11" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>513.25</v>
+        <v>1546</v>
       </c>
       <c r="F11" t="n">
-        <v>610.75</v>
+        <v>1038</v>
       </c>
       <c r="G11" t="n">
-        <v>289.25</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="12">
@@ -5016,22 +5601,22 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="D12" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>1026.5</v>
+        <v>2698</v>
       </c>
       <c r="F12" t="n">
-        <v>1221.5</v>
+        <v>3670</v>
       </c>
       <c r="G12" t="n">
-        <v>578.5</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="13">
@@ -5039,22 +5624,22 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="D13" t="n">
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>2053</v>
+        <v>4106</v>
       </c>
       <c r="F13" t="n">
-        <v>2443</v>
+        <v>4886</v>
       </c>
       <c r="G13" t="n">
-        <v>1157</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="14">
@@ -5062,22 +5647,22 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>4096</v>
+        <v>65536</v>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>128.31</v>
+        <v>3092</v>
       </c>
       <c r="F14" t="n">
-        <v>152.69</v>
+        <v>2076</v>
       </c>
       <c r="G14" t="n">
-        <v>72.31</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="15">
@@ -5085,22 +5670,22 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>8192</v>
+        <v>65536</v>
       </c>
       <c r="D15" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>256.62</v>
+        <v>5396</v>
       </c>
       <c r="F15" t="n">
-        <v>305.38</v>
+        <v>7340</v>
       </c>
       <c r="G15" t="n">
-        <v>144.62</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="16">
@@ -5108,22 +5693,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>513.25</v>
+        <v>8212</v>
       </c>
       <c r="F16" t="n">
-        <v>610.75</v>
+        <v>9772</v>
       </c>
       <c r="G16" t="n">
-        <v>289.25</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="17">
@@ -5131,22 +5716,22 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="D17" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>1026.5</v>
+        <v>6184</v>
       </c>
       <c r="F17" t="n">
-        <v>1221.5</v>
+        <v>4152</v>
       </c>
       <c r="G17" t="n">
-        <v>578.5</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="18">
@@ -5154,22 +5739,22 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D18" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>2053</v>
+        <v>10792</v>
       </c>
       <c r="F18" t="n">
-        <v>2443</v>
+        <v>14680</v>
       </c>
       <c r="G18" t="n">
-        <v>1157</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="19">
@@ -5177,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
         <v>131072</v>
@@ -5186,426 +5771,12 @@
         <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>4106</v>
+        <v>16424</v>
       </c>
       <c r="F19" t="n">
-        <v>4886</v>
+        <v>19544</v>
       </c>
       <c r="G19" t="n">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D20" t="n">
-        <v>128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>192.47</v>
-      </c>
-      <c r="F20" t="n">
-        <v>229.03</v>
-      </c>
-      <c r="G20" t="n">
-        <v>108.47</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D21" t="n">
-        <v>128</v>
-      </c>
-      <c r="E21" t="n">
-        <v>384.94</v>
-      </c>
-      <c r="F21" t="n">
-        <v>458.06</v>
-      </c>
-      <c r="G21" t="n">
-        <v>216.94</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D22" t="n">
-        <v>128</v>
-      </c>
-      <c r="E22" t="n">
-        <v>769.88</v>
-      </c>
-      <c r="F22" t="n">
-        <v>916.12</v>
-      </c>
-      <c r="G22" t="n">
-        <v>433.88</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12</v>
-      </c>
-      <c r="C23" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D23" t="n">
-        <v>128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1539.75</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1832.25</v>
-      </c>
-      <c r="G23" t="n">
-        <v>867.75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C24" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D24" t="n">
-        <v>128</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3079.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3664.5</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1735.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D25" t="n">
-        <v>128</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6159</v>
-      </c>
-      <c r="F25" t="n">
-        <v>7329</v>
-      </c>
-      <c r="G25" t="n">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D26" t="n">
-        <v>128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>256.62</v>
-      </c>
-      <c r="F26" t="n">
-        <v>305.38</v>
-      </c>
-      <c r="G26" t="n">
-        <v>144.62</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D27" t="n">
-        <v>128</v>
-      </c>
-      <c r="E27" t="n">
-        <v>513.25</v>
-      </c>
-      <c r="F27" t="n">
-        <v>610.75</v>
-      </c>
-      <c r="G27" t="n">
-        <v>289.25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D28" t="n">
-        <v>128</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1026.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1221.5</v>
-      </c>
-      <c r="G28" t="n">
-        <v>578.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="n">
-        <v>16</v>
-      </c>
-      <c r="C29" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D29" t="n">
-        <v>128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2053</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2443</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="n">
-        <v>16</v>
-      </c>
-      <c r="C30" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D30" t="n">
-        <v>128</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4106</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4886</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="n">
-        <v>16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D31" t="n">
-        <v>128</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8212</v>
-      </c>
-      <c r="F31" t="n">
-        <v>9772</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="n">
-        <v>32</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D32" t="n">
-        <v>128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>513.25</v>
-      </c>
-      <c r="F32" t="n">
-        <v>610.75</v>
-      </c>
-      <c r="G32" t="n">
-        <v>289.25</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D33" t="n">
-        <v>128</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1026.5</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1221.5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>578.5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D34" t="n">
-        <v>128</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2053</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2443</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="n">
-        <v>32</v>
-      </c>
-      <c r="C35" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D35" t="n">
-        <v>128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4106</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4886</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="n">
-        <v>32</v>
-      </c>
-      <c r="C36" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D36" t="n">
-        <v>128</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8212</v>
-      </c>
-      <c r="F36" t="n">
-        <v>9772</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="n">
-        <v>32</v>
-      </c>
-      <c r="C37" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D37" t="n">
-        <v>128</v>
-      </c>
-      <c r="E37" t="n">
-        <v>16424</v>
-      </c>
-      <c r="F37" t="n">
-        <v>19544</v>
-      </c>
-      <c r="G37" t="n">
         <v>9256</v>
       </c>
     </row>
